--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627212.896196998</v>
+        <v>1698974.366034233</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6671357.325053132</v>
+        <v>7135615.566418521</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -671,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>203.8034667831178</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>135.0628014675669</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>56.40298632206179</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>152.6093644905707</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -908,10 +910,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -947,16 +949,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>237.1359214906315</v>
+        <v>207.0480212707258</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>128.889762716035</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>37.57894091842063</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>269.0989739919506</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>53.03228358185862</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>40.1940271285583</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>11.92226940476858</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1540,10 +1542,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1582,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>213.3001204992017</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>65.95010116340852</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
-        <v>140.764757478069</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.6289001473867</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1828,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>47.1667246599682</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>121.9332546069154</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2144,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>73.50111029899487</v>
       </c>
       <c r="U22" t="n">
-        <v>161.6732511377528</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>101.769727493644</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>234.3692901880346</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2716,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>221.6885862577654</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>200.1143878900198</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.0412378013742</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>196.7921094131665</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
-        <v>96.44420510686395</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>150.9194406702579</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>260.444681387164</v>
+        <v>115.105571630339</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3743,22 +3745,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>247.7505813988347</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3800,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3907,7 +3909,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9257884445915</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845507</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458126</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>364.8485645715674</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.22051145226823</v>
+        <v>51.5854374042942</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>774.7291026788682</v>
+        <v>1371.151733343031</v>
       </c>
       <c r="C2" t="n">
-        <v>347.8283726921683</v>
+        <v>944.2510033563315</v>
       </c>
       <c r="D2" t="n">
-        <v>328.5761559175727</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>306.6396201058343</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>285.5558423356386</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>285.2571839654913</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>116.829168004879</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>667.4947029893171</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L2" t="n">
-        <v>1218.160237973755</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M2" t="n">
-        <v>1768.825772958194</v>
+        <v>498.2899918885871</v>
       </c>
       <c r="N2" t="n">
-        <v>1768.825772958194</v>
+        <v>977.2289161310152</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.98568150701</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.98568150701</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.594331807357</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="X2" t="n">
-        <v>1195.874332975104</v>
+        <v>1523.386765783619</v>
       </c>
       <c r="Y2" t="n">
-        <v>790.5370629299942</v>
+        <v>1386.959693594157</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825398</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="N3" t="n">
-        <v>1389.040378766978</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1018.443855182966</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>846.471292061882</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>683.1545191886527</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V4" t="n">
-        <v>1726.026124276714</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W4" t="n">
-        <v>1451.173720449226</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>1208.609823895032</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>1208.609823895032</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.8670150191533</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9662850324534</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4565,16 +4567,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
         <v>1218.160237973755</v>
@@ -4595,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1401.732244147642</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X5" t="n">
-        <v>990.012245315389</v>
+        <v>883.8402198009502</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4759,16 +4761,16 @@
         <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394889</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1354.022115883742</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1354.022115883742</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.679347573484</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>379.8103493568968</v>
+        <v>1796.086427374292</v>
       </c>
       <c r="C8" t="n">
-        <v>356.950023410601</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D8" t="n">
-        <v>337.6978066360053</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>800.9555796531324</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>395.6183096080227</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.9200589091692</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C10" t="n">
-        <v>494.9200589091692</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>494.9200589091692</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.0860276212348</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2468.184063897751</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2041.283333911051</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.990713096051</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1192.013773243908</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333086</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L11" t="n">
-        <v>1151.744818897791</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M11" t="n">
-        <v>1151.744818897791</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N11" t="n">
-        <v>1151.744818897791</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O11" t="n">
-        <v>1952.186431295594</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.465710453521</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3222.064828471154</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3222.064828471154</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2864.575413597404</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2468.184063897751</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2468.184063897751</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2468.184063897751</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>655.1670770651317</v>
+        <v>610.0460590406528</v>
       </c>
       <c r="L12" t="n">
-        <v>655.1670770651317</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M12" t="n">
-        <v>693.0265871760246</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N12" t="n">
-        <v>693.0265871760246</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O12" t="n">
-        <v>693.0265871760246</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>543.6569660873066</v>
+        <v>775.7107933313494</v>
       </c>
       <c r="C13" t="n">
-        <v>543.6569660873066</v>
+        <v>603.7382302102653</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3401932140773</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E13" t="n">
-        <v>380.3401932140773</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F13" t="n">
-        <v>208.4784189886378</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>208.4784189886378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1569.127502171218</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1287.416034779247</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1012.563630951759</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>769.9997343975646</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y13" t="n">
-        <v>543.6569660873066</v>
+        <v>965.8767620434151</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1908.163246676455</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.262516689755</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1057.969895874756</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>631.9929560226132</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>206.8687742120134</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>206.8687742120134</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722912</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L14" t="n">
-        <v>1151.744818897791</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M14" t="n">
-        <v>1952.186431295594</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N14" t="n">
-        <v>1952.186431295594</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295594</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453521</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3129.740230712748</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3129.740230712748</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2733.348881013095</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2733.348881013095</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2328.011610967985</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.12879345870398</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.12879345870398</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>72.12879345870398</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>526.7633817320166</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M15" t="n">
-        <v>526.7633817320166</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N15" t="n">
-        <v>526.7633817320166</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O15" t="n">
-        <v>1327.204994129819</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P15" t="n">
-        <v>1327.204994129819</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>371.7951918618671</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C16" t="n">
-        <v>371.7951918618671</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D16" t="n">
-        <v>208.4784189886378</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E16" t="n">
-        <v>208.4784189886378</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F16" t="n">
-        <v>208.4784189886378</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>208.4784189886378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1831.620782654955</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.43633415526</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1269.724866763288</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>994.8724629358014</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>752.3085663816065</v>
+        <v>937.8112563098209</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.9657980713486</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>409.5807935972459</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1125.089101572745</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5555,10 +5557,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5597,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7102578919605</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5835,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.9588572096898</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C22" t="n">
-        <v>683.9862940886057</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9862940886057</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="U22" t="n">
-        <v>1829.031465451472</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V22" t="n">
-        <v>1547.3199980595</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W22" t="n">
-        <v>1272.467594232013</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.467594232013</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y22" t="n">
-        <v>1046.124825921755</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>739.6560874287652</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>3516.51701245672</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>5012.337965752393</v>
       </c>
       <c r="U25" t="n">
-        <v>2112.580693338092</v>
+        <v>4732.153517252697</v>
       </c>
       <c r="V25" t="n">
-        <v>1875.844036582501</v>
+        <v>4450.442049860726</v>
       </c>
       <c r="W25" t="n">
-        <v>1600.991632755014</v>
+        <v>4175.589646033239</v>
       </c>
       <c r="X25" t="n">
-        <v>1358.427736200819</v>
+        <v>3933.025749479044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>3706.682981168786</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6229,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6309,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>2058.787875912123</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1777.076408520152</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>3306.448039710919</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>4395.762986183789</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540.3008144924045</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>368.3282513713204</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3282513713204</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>368.3282513713204</v>
+        <v>205.3746707809539</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1430.441863840363</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1155.589460012876</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>956.8095515147281</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4667832044702</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6938,40 +6940,40 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7017,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1529.586448057074</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.72140846125</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>581.277528996343</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7175,43 +7177,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677403</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677403</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>109.7493563677403</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N39" t="n">
-        <v>1199.06430284061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976741</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V40" t="n">
-        <v>2019.640305074347</v>
+        <v>2119.40887333407</v>
       </c>
       <c r="W40" t="n">
-        <v>1744.78790124686</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692665</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1572.151995270261</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1145.251265283561</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>894.9981527594859</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>469.0212129073435</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>64.6821504967921</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
-        <v>64.6821504967921</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>427.2856093136876</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>924.9450208860731</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>924.9450208860731</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N41" t="n">
-        <v>1725.386633283875</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O41" t="n">
-        <v>2525.828245681678</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839606</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884239</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>2754.827044480651</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2397.337629606901</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2397.337629606901</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2397.337629606901</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1992.000359561791</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282473</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457521</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610371</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339743</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168785</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.6821504967921</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>64.6821504967921</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816972</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.9281686795</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.9281686795</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950177</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.73265094831</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>876.2329305358653</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>704.2603674147813</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D43" t="n">
-        <v>540.943594541552</v>
+        <v>850.194499935752</v>
       </c>
       <c r="E43" t="n">
-        <v>374.7353886944056</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886377</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H43" t="n">
-        <v>64.6821504967921</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209501</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>1849.305538777647</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V43" t="n">
-        <v>1567.594071385676</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W43" t="n">
-        <v>1292.741667558189</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>1292.741667558189</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1066.398899247931</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2063.845001487199</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.944271500499</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1213.6516506855</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>787.674710833357</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5505290227572</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227572</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>64.6821504967921</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.6821504967921</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>64.6821504967921</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945945</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="M44" t="n">
-        <v>865.1237628945945</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N44" t="n">
-        <v>1665.565375292397</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O44" t="n">
-        <v>2466.006987690199</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P44" t="n">
-        <v>3174.286266848127</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>3174.286266848127</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839606</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3234.107524839606</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2837.716175139953</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2469.182271532309</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.845001487199</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290551</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808056</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323341</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.495589596278</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279183</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496786</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259096</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259096</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259096</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>2015.904820827436</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L45" t="n">
-        <v>2517.909807801107</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M45" t="n">
-        <v>2517.909807801107</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N45" t="n">
-        <v>2517.909807801107</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.909807801107</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839606</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839606</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839606</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.78327740086</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.903341698538</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618175</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757441</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.640629590659</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357322</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710614</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1134.176029460566</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C46" t="n">
-        <v>962.2034663394818</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D46" t="n">
-        <v>798.8866934662525</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E46" t="n">
-        <v>632.678487619106</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F46" t="n">
-        <v>460.8167133936664</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G46" t="n">
-        <v>294.5597436878986</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H46" t="n">
-        <v>150.763475196053</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I46" t="n">
-        <v>64.6821504967921</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209501</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>2074.960130429055</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>1793.248663037084</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W46" t="n">
-        <v>1793.248663037084</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X46" t="n">
-        <v>1550.684766482889</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y46" t="n">
-        <v>1324.341998172632</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4815180266284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>501.6614210774819</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>268.7645418748069</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>330.8941070436069</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8152,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740729</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>111.3736009736648</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>460.1807970851423</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,13 +8455,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
@@ -8471,7 +8473,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>176.6411400339851</v>
       </c>
       <c r="O9" t="n">
-        <v>185.9918631203543</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L11" t="n">
-        <v>413.6194772058548</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,16 +8768,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>260.8293917679123</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>61.33870991727026</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8784,7 +8786,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>413.6194772058548</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>481.7419435559594</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9018,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>339.8018586688364</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9243,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>105.6391777587192</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9650,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>666.8880674041833</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9738,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9957,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1004.802661823039</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>749.8109645784228</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10349,10 +10351,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>464.8736204150508</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843301</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,16 +10667,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>408.0034988235887</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>728.3675687028203</v>
+        <v>585.0680802286654</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,25 +10898,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>185.1977413813447</v>
       </c>
       <c r="O39" t="n">
-        <v>659.4413150363887</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>540.9983167481638</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314277</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443474</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659254</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>232.4185269010024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222294</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321236</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425243</v>
+        <v>586.4197136125388</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443474</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659254</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>95.45816301750241</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L45" t="n">
-        <v>529.5908311320799</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11394,7 +11396,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.7940458410446</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>64.08248351549702</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>158.1292394637468</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>154.1249372626365</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.63540887755832</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.9715329286847</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>42.61286918175956</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.4048439973641</v>
       </c>
       <c r="U22" t="n">
-        <v>115.709352876946</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>139.136226802715</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>44.52506253001681</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24649,22 +24651,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>55.69401775693336</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>71.9894918991923</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>43.34614817548646</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
-        <v>68.15019490184623</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.33339681961522</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25327,7 +25329,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -25606,7 +25608,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>18.44967133088738</v>
+        <v>163.7887810877123</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>171.309113208015</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>126.4568155701073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>115.7088052046614</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>42.75423427236279</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>13.55037112485856</v>
+        <v>47.18544517283259</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>610994.9174944902</v>
+        <v>607279.8581457427</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459396.8389741122</v>
+        <v>619560.2100489314</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459396.8389741121</v>
+        <v>619560.2100489314</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619560.2100489314</v>
+        <v>619560.2100489315</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459396.8389741119</v>
+        <v>619560.2100489315</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459396.8389741119</v>
+        <v>619560.2100489314</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>451393.0677086514</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086515</v>
       </c>
       <c r="D2" t="n">
         <v>451393.0677086514</v>
       </c>
       <c r="E2" t="n">
-        <v>322990.9468021281</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.946802128</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="G2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="H2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="I2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="J2" t="n">
         <v>435573.5624315214</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="L2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="I2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>435573.5624315216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>435573.5624315218</v>
+      </c>
+      <c r="N2" t="n">
         <v>435573.5624315215</v>
       </c>
-      <c r="M2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>435573.5624315217</v>
-      </c>
       <c r="O2" t="n">
-        <v>322990.9468021279</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="P2" t="n">
-        <v>322990.9468021279</v>
+        <v>435573.5624315215</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.9369653738</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182621.0655158991</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>53631.12390475633</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="F4" t="n">
-        <v>53631.12390475633</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="M4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="O4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="P4" t="n">
         <v>72380.6272498637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>72380.6272498637</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53631.12390475632</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53631.12390475632</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.434377562</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.434377562</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14921.01774058695</v>
+        <v>30739.82790431718</v>
       </c>
       <c r="C6" t="n">
-        <v>201325.7511553242</v>
+        <v>177918.9174817121</v>
       </c>
       <c r="D6" t="n">
         <v>201325.7511553242</v>
       </c>
       <c r="E6" t="n">
-        <v>144870.4373663476</v>
+        <v>69703.51643658739</v>
       </c>
       <c r="F6" t="n">
-        <v>220201.3885198096</v>
+        <v>285442.872993228</v>
       </c>
       <c r="G6" t="n">
-        <v>156552.4731816875</v>
+        <v>285442.8729932283</v>
       </c>
       <c r="H6" t="n">
+        <v>285442.8729932281</v>
+      </c>
+      <c r="I6" t="n">
+        <v>285442.8729932282</v>
+      </c>
+      <c r="J6" t="n">
+        <v>158865.6044129392</v>
+      </c>
+      <c r="K6" t="n">
+        <v>266796.2726362084</v>
+      </c>
+      <c r="L6" t="n">
         <v>285442.8729932283</v>
       </c>
-      <c r="I6" t="n">
-        <v>285442.8729932283</v>
-      </c>
-      <c r="J6" t="n">
-        <v>139909.2030584117</v>
-      </c>
-      <c r="K6" t="n">
-        <v>285442.8729932283</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>105379.0015380608</v>
+      </c>
+      <c r="N6" t="n">
         <v>285442.8729932281</v>
       </c>
-      <c r="M6" t="n">
-        <v>222568.9360278545</v>
-      </c>
-      <c r="N6" t="n">
-        <v>285442.8729932284</v>
-      </c>
       <c r="O6" t="n">
-        <v>220201.3885198096</v>
+        <v>285442.8729932282</v>
       </c>
       <c r="P6" t="n">
-        <v>220201.3885198096</v>
+        <v>285442.8729932282</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
         <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099014</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099014</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943074</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>91.08622795758774</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>266.2210958770916</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.1431374666132</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27594,16 +27596,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.4945152986414</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>155.2915147120251</v>
+        <v>185.3794149319307</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>113.0089626044154</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>143.2141170731771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>385.0527817684122</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>152.6181964616704</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>124.3520966601167</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>464.2301581780501</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>307.7222173213847</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34872,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709420811</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>73.0615585410419</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,13 +35175,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>144.2794790315872</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
@@ -35191,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>162.8199733981321</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L11" t="n">
-        <v>375.3074347732319</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>238.430157934579</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>375.3074347732319</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>459.2268568417299</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>310.3818991832499</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>83.23994392538583</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36370,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>643.7912868918553</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>981.7058813107108</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>428.7489458104528</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953359</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>690.7922068925891</v>
+        <v>547.492718418434</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="O39" t="n">
-        <v>636.2694253141665</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>502.6862743155409</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099014</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099014</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9034401867728</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099014</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099014</v>
+        <v>548.1076711799159</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099014</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099014</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>60.42551312270595</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L45" t="n">
-        <v>507.0757444178503</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1698974.366034233</v>
+        <v>1698277.704829143</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114756</v>
+        <v>612367.9462114758</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -670,10 +670,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>200.737323390387</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.0628014675669</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>68.50862025507699</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>152.6093644905707</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -910,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>207.0480212707258</v>
+        <v>154.6054260348455</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>51.58543740429482</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074661</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>37.57894091842063</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>57.09791961948172</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>53.03228358185862</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.46305123648368</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486155</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1426,10 +1426,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250137</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>113.372321399939</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>65.95010116340852</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,13 +1615,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>47.1667246599682</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486158</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>121.9332546069154</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>73.50111029899487</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>101.769727493644</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>221.6885862577654</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3426,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396434</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855901</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>115.105571630339</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3793,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458126</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W43" t="n">
-        <v>156.3950745845507</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458126</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>51.5854374042942</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1371.151733343031</v>
+        <v>744.7521206136305</v>
       </c>
       <c r="C2" t="n">
-        <v>944.2510033563315</v>
+        <v>721.8917946673347</v>
       </c>
       <c r="D2" t="n">
-        <v>520.9583825413317</v>
+        <v>298.599173852335</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0218467295933</v>
+        <v>276.6626380405966</v>
       </c>
       <c r="F2" t="n">
-        <v>477.9380689593976</v>
+        <v>73.89766491899348</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>73.59900654884618</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>73.59900654884618</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231743</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="L2" t="n">
-        <v>38.70213529231743</v>
+        <v>996.5799837771727</v>
       </c>
       <c r="M2" t="n">
-        <v>498.2899918885871</v>
+        <v>996.5799837771727</v>
       </c>
       <c r="N2" t="n">
-        <v>977.2289161310152</v>
+        <v>1456.167840373442</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373443</v>
+        <v>1456.167840373442</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615871</v>
+        <v>1577.617349742119</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615871</v>
+        <v>1577.617349742119</v>
       </c>
       <c r="X2" t="n">
-        <v>1523.386765783619</v>
+        <v>1569.93775495027</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.959693594157</v>
+        <v>1164.600484905161</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231743</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="L3" t="n">
-        <v>38.70213529231743</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="M3" t="n">
-        <v>38.70213529231743</v>
+        <v>517.6410595347451</v>
       </c>
       <c r="N3" t="n">
-        <v>517.6410595347456</v>
+        <v>996.5799837771727</v>
       </c>
       <c r="O3" t="n">
-        <v>822.2860546829165</v>
+        <v>1475.518908019601</v>
       </c>
       <c r="P3" t="n">
-        <v>1301.224978925345</v>
+        <v>1475.518908019601</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>855.7945483425207</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>855.7945483425207</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>786.5939218222409</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>620.3857159750944</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>282.266972043887</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679188</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>911.5879131381696</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1289.079424014205</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1644.507552693969</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="U4" t="n">
-        <v>1935.106764615871</v>
+        <v>1654.922316116174</v>
       </c>
       <c r="V4" t="n">
-        <v>1935.106764615871</v>
+        <v>1373.210848724203</v>
       </c>
       <c r="W4" t="n">
-        <v>1780.955891393073</v>
+        <v>1098.358444896716</v>
       </c>
       <c r="X4" t="n">
-        <v>1538.391994838878</v>
+        <v>855.7945483425207</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>855.7945483425207</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.7353935451185</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1504.699634058179</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1295.560218633203</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="X5" t="n">
-        <v>883.8402198009502</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.5433537962446</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989122</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782816</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782816</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782816</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782816</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4725,25 +4725,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109778</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.086427374292</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>1758.12790119407</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.83528037907</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
+        <v>1006.023847611597</v>
+      </c>
+      <c r="N8" t="n">
         <v>1556.689382596036</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
         <v>2107.354917580474</v>
@@ -4846,10 +4846,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>51.94486801115937</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M9" t="n">
-        <v>51.94486801115937</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N9" t="n">
-        <v>205.6899987133984</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1009.274747666399</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>2179.999079496231</v>
       </c>
       <c r="V10" t="n">
-        <v>1943.199785070404</v>
+        <v>1898.28761210426</v>
       </c>
       <c r="W10" t="n">
-        <v>1668.347381242917</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1425.783484688723</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1199.440716378465</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,28 +5041,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5077,13 +5077,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5120,19 +5120,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>610.0460590406528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1446.844867123559</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O12" t="n">
         <v>1446.844867123559</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>775.7107933313494</v>
+        <v>709.2223918853055</v>
       </c>
       <c r="C13" t="n">
-        <v>603.7382302102653</v>
+        <v>537.2498287642214</v>
       </c>
       <c r="D13" t="n">
-        <v>440.421457337036</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E13" t="n">
-        <v>440.421457337036</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5226,25 +5226,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1924.858896681282</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1643.147429289311</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1368.295025461824</v>
       </c>
       <c r="X13" t="n">
-        <v>1032.493025844838</v>
+        <v>1125.731128907629</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.8767620434151</v>
+        <v>899.388360597371</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883225</v>
@@ -5278,28 +5278,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>188.235025135897</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2837.654482149731</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5354,25 +5354,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>1529.586448057074</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>747.6452875977553</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C16" t="n">
-        <v>575.6727244766713</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D16" t="n">
-        <v>412.355951603442</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E16" t="n">
-        <v>412.355951603442</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5463,25 +5463,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X16" t="n">
-        <v>937.8112563098209</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.8112563098209</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5557,10 +5557,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.5863609803849</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>775.6620294727279</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>603.6894663516439</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1991.298534268705</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1991.298534268705</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.587066876733</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.734663049246</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.170766495052</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.8279981847936</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5998,13 +5998,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
         <v>4541.493855905342</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3516.51701245672</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3344.544449335636</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3344.544449335636</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3344.544449335636</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>5012.337965752393</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4732.153517252697</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4450.442049860726</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4175.589646033239</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3933.025749479044</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3706.682981168786</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6308,25 +6308,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2058.787875912123</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1777.076408520152</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1502.224004692665</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6545,25 +6545,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6782,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,55 +6925,55 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
@@ -7007,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7019,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D37" t="n">
         <v>274.1644876312681</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291425</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7244,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7262,19 +7262,19 @@
         <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>1748.774177950213</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.40887333407</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,37 +7411,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109899</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7481,7 +7481,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>964.4851292537592</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7548,31 +7548,31 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808981</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>850.194499935752</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886055</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631659</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,19 +7593,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U43" t="n">
-        <v>2002.531292319261</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V43" t="n">
-        <v>2002.531292319261</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W43" t="n">
         <v>1844.556469506584</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1007.532766690841</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.818868109899</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7718,34 +7718,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>730.647150085061</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M45" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F46" t="n">
-        <v>154.4092158344085</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G46" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487767</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865903</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6614210774819</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884139</v>
+        <v>501.5097810124955</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.3520529641987</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8060,7 +8060,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873007</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8069,16 +8069,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675096</v>
+        <v>505.119719367509</v>
       </c>
       <c r="O3" t="n">
-        <v>330.8941070436069</v>
+        <v>506.9485808761896</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587966</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>315.5263794693053</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>279.6686403702106</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740729</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>102.4815180266284</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,7 +8230,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500369</v>
+        <v>452.4414523720699</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>176.6411400339851</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>260.8293917679123</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.2202743644436</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9014,7 +9014,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,7 +9023,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,19 +9251,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9646,16 +9646,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9719,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9889,7 +9889,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9898,7 +9898,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>129.1350140843301</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>185.1977413813447</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314277</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11138,16 +11138,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>586.4197136125388</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>375.1268140734642</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>164.0102826147597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.1292394637468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>48.89490464996135</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.9715329286847</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>42.61286918175956</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>167.4048439973641</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>139.136226802715</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>55.69401775693336</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>111.8076272173316</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>163.7887810877123</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25842,13 +25842,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W43" t="n">
-        <v>115.7088052046614</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>47.18544517283259</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619560.2100489315</v>
+        <v>619560.2100489314</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619560.2100489315</v>
+        <v>619560.2100489314</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="C2" t="n">
+        <v>451393.0677086513</v>
+      </c>
+      <c r="D2" t="n">
         <v>451393.0677086515</v>
       </c>
-      <c r="D2" t="n">
-        <v>451393.0677086514</v>
-      </c>
       <c r="E2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="F2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315218</v>
       </c>
       <c r="G2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="H2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="I2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="J2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="K2" t="n">
         <v>435573.5624315215</v>
-      </c>
-      <c r="I2" t="n">
-        <v>435573.5624315216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>435573.5624315214</v>
-      </c>
-      <c r="K2" t="n">
-        <v>435573.5624315216</v>
       </c>
       <c r="L2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="M2" t="n">
-        <v>435573.5624315218</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="N2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="O2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="P2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315217</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.397265017402108e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195487.3209125818</v>
+        <v>195487.3209125819</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.065515899</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
         <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="F4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986367</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986368</v>
       </c>
       <c r="O4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30739.82790431718</v>
+        <v>30739.82790431721</v>
       </c>
       <c r="C6" t="n">
-        <v>177918.9174817121</v>
+        <v>177918.9174817117</v>
       </c>
       <c r="D6" t="n">
-        <v>201325.7511553242</v>
+        <v>201325.7511553243</v>
       </c>
       <c r="E6" t="n">
-        <v>69703.51643658739</v>
+        <v>69652.48577440345</v>
       </c>
       <c r="F6" t="n">
-        <v>285442.872993228</v>
+        <v>285391.8423310441</v>
       </c>
       <c r="G6" t="n">
-        <v>285442.8729932283</v>
+        <v>285391.842331044</v>
       </c>
       <c r="H6" t="n">
-        <v>285442.8729932281</v>
+        <v>285391.8423310439</v>
       </c>
       <c r="I6" t="n">
-        <v>285442.8729932282</v>
+        <v>285391.842331044</v>
       </c>
       <c r="J6" t="n">
-        <v>158865.6044129392</v>
+        <v>158814.5737507553</v>
       </c>
       <c r="K6" t="n">
-        <v>266796.2726362084</v>
+        <v>266745.2419740238</v>
       </c>
       <c r="L6" t="n">
-        <v>285442.8729932283</v>
+        <v>285391.8423310439</v>
       </c>
       <c r="M6" t="n">
-        <v>105379.0015380608</v>
+        <v>105327.9708758763</v>
       </c>
       <c r="N6" t="n">
-        <v>285442.8729932281</v>
+        <v>285391.842331044</v>
       </c>
       <c r="O6" t="n">
-        <v>285442.8729932282</v>
+        <v>285391.8423310439</v>
       </c>
       <c r="P6" t="n">
-        <v>285442.8729932282</v>
+        <v>285391.842331044</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.996581271752635e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572622</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.996581271752635e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>220.1356166021067</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27438,16 +27438,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.2210958770916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.17498488942</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>119.4945152986414</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>185.3794149319307</v>
+        <v>237.8220101678111</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113.0089626044154</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058524</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>385.0527817684122</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>350.5048792244485</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>117.2205539080145</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,7 +28067,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>232.9195527782151</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-8.155519682317728e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-2.996581271752635e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.384404281969182e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="M2" t="n">
-        <v>464.2301581780501</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539679</v>
+        <v>464.2301581780495</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="O3" t="n">
-        <v>307.7222173213847</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>292.7793411803268</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>257.7498804745094</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.657387709420811</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.06155854104185</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>48.74406945557187</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>155.2981118204434</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.430157934579</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>86.80031487885702</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35734,7 +35734,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36609,7 +36609,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36618,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>94.10236418953359</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.492718418434</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319959</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>548.1076711799159</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>352.7275802401309</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
